--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>89</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>93</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>96</v>
       </c>
@@ -7065,16 +7065,19 @@
         <v>894</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R80">
         <v>0</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>0.8000000000000002</v>
+      </c>
+      <c r="T80">
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -13078,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:20">
+    <row r="209" spans="1:19">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -13125,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" spans="1:19">
       <c r="A210" t="s">
         <v>206</v>
       </c>
@@ -13172,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="1:19">
       <c r="A211" t="s">
         <v>207</v>
       </c>
@@ -13219,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="1:19">
       <c r="A212" t="s">
         <v>208</v>
       </c>
@@ -13266,7 +13269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="1:19">
       <c r="A213" t="s">
         <v>209</v>
       </c>
@@ -13301,22 +13304,19 @@
         <v>894</v>
       </c>
       <c r="P213">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="Q213">
-        <v>5555</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="S213">
-        <v>10.19113149847095</v>
-      </c>
-      <c r="T213">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="214" spans="1:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19">
       <c r="A214" t="s">
         <v>210</v>
       </c>
@@ -13360,10 +13360,10 @@
         <v>0</v>
       </c>
       <c r="S214">
-        <v>10.19113149847095</v>
-      </c>
-    </row>
-    <row r="215" spans="1:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19">
       <c r="A215" t="s">
         <v>211</v>
       </c>
@@ -13407,10 +13407,10 @@
         <v>0</v>
       </c>
       <c r="S215">
-        <v>10.19113149847095</v>
-      </c>
-    </row>
-    <row r="216" spans="1:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19">
       <c r="A216" t="s">
         <v>212</v>
       </c>
@@ -13454,10 +13454,10 @@
         <v>0</v>
       </c>
       <c r="S216">
-        <v>10.19113149847095</v>
-      </c>
-    </row>
-    <row r="217" spans="1:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19">
       <c r="A217" t="s">
         <v>213</v>
       </c>
@@ -13501,10 +13501,10 @@
         <v>0</v>
       </c>
       <c r="S217">
-        <v>10.19113149847095</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19">
       <c r="A218" t="s">
         <v>214</v>
       </c>
@@ -13548,10 +13548,10 @@
         <v>0</v>
       </c>
       <c r="S218">
-        <v>10.19113149847095</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19">
       <c r="A219" t="s">
         <v>215</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="S219">
-        <v>10.19113149847095</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -73,7 +73,7 @@
     <t>m_i</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>LabSumapaz</t>
@@ -3410,6 +3410,9 @@
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
@@ -3457,6 +3460,9 @@
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
@@ -3504,6 +3510,9 @@
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
@@ -3551,6 +3560,9 @@
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
@@ -3598,6 +3610,9 @@
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
@@ -3645,6 +3660,9 @@
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
@@ -3692,6 +3710,9 @@
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
@@ -3739,6 +3760,9 @@
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
@@ -3786,6 +3810,9 @@
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
@@ -3833,6 +3860,9 @@
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
@@ -3880,6 +3910,9 @@
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
@@ -3927,6 +3960,9 @@
       <c r="S13">
         <v>0</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
@@ -3974,6 +4010,9 @@
       <c r="S14">
         <v>0</v>
       </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
@@ -4021,6 +4060,9 @@
       <c r="S15">
         <v>0</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
@@ -4068,8 +4110,11 @@
       <c r="S16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4115,8 +4160,11 @@
       <c r="S17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4162,8 +4210,11 @@
       <c r="S18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4209,8 +4260,11 @@
       <c r="S19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -4256,8 +4310,11 @@
       <c r="S20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -4303,8 +4360,11 @@
       <c r="S21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -4350,8 +4410,11 @@
       <c r="S22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -4397,8 +4460,11 @@
       <c r="S23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -4444,8 +4510,11 @@
       <c r="S24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -4491,8 +4560,11 @@
       <c r="S25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -4538,8 +4610,11 @@
       <c r="S26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -4585,8 +4660,11 @@
       <c r="S27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -4632,8 +4710,11 @@
       <c r="S28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -4679,8 +4760,11 @@
       <c r="S29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -4726,8 +4810,11 @@
       <c r="S30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -4773,8 +4860,11 @@
       <c r="S31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -4820,8 +4910,11 @@
       <c r="S32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -4867,8 +4960,11 @@
       <c r="S33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -4914,8 +5010,11 @@
       <c r="S34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -4961,8 +5060,11 @@
       <c r="S35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -5008,8 +5110,11 @@
       <c r="S36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -5055,8 +5160,11 @@
       <c r="S37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -5102,8 +5210,11 @@
       <c r="S38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -5149,8 +5260,11 @@
       <c r="S39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -5196,8 +5310,11 @@
       <c r="S40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -5243,8 +5360,11 @@
       <c r="S41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -5290,8 +5410,11 @@
       <c r="S42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -5337,8 +5460,11 @@
       <c r="S43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5384,8 +5510,11 @@
       <c r="S44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -5431,8 +5560,11 @@
       <c r="S45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -5478,8 +5610,11 @@
       <c r="S46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -5525,8 +5660,11 @@
       <c r="S47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -5572,8 +5710,11 @@
       <c r="S48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -5619,8 +5760,11 @@
       <c r="S49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -5666,8 +5810,11 @@
       <c r="S50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -5713,8 +5860,11 @@
       <c r="S51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -5760,8 +5910,11 @@
       <c r="S52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -5807,8 +5960,11 @@
       <c r="S53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -5854,8 +6010,11 @@
       <c r="S54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -5901,8 +6060,11 @@
       <c r="S55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -5948,8 +6110,11 @@
       <c r="S56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -5995,8 +6160,11 @@
       <c r="S57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -6042,8 +6210,11 @@
       <c r="S58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -6089,8 +6260,11 @@
       <c r="S59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -6136,8 +6310,11 @@
       <c r="S60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -6183,8 +6360,11 @@
       <c r="S61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -6230,8 +6410,11 @@
       <c r="S62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -6277,8 +6460,11 @@
       <c r="S63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -6322,6 +6508,9 @@
         <v>0</v>
       </c>
       <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
         <v>0</v>
       </c>
     </row>
@@ -6371,6 +6560,9 @@
       <c r="S65">
         <v>0</v>
       </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" t="s">
@@ -6418,6 +6610,9 @@
       <c r="S66">
         <v>0</v>
       </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
@@ -6465,6 +6660,9 @@
       <c r="S67">
         <v>0</v>
       </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
@@ -6512,6 +6710,9 @@
       <c r="S68">
         <v>0</v>
       </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
@@ -6559,6 +6760,9 @@
       <c r="S69">
         <v>0</v>
       </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" t="s">
@@ -6606,6 +6810,9 @@
       <c r="S70">
         <v>0</v>
       </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
@@ -6653,6 +6860,9 @@
       <c r="S71">
         <v>0</v>
       </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
@@ -6700,6 +6910,9 @@
       <c r="S72">
         <v>0</v>
       </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
@@ -6747,6 +6960,9 @@
       <c r="S73">
         <v>0</v>
       </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" t="s">
@@ -6794,6 +7010,9 @@
       <c r="S74">
         <v>0</v>
       </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
@@ -6841,6 +7060,9 @@
       <c r="S75">
         <v>0</v>
       </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" t="s">
@@ -6888,6 +7110,9 @@
       <c r="S76">
         <v>0</v>
       </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" t="s">
@@ -6935,6 +7160,9 @@
       <c r="S77">
         <v>0</v>
       </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
@@ -6982,6 +7210,9 @@
       <c r="S78">
         <v>0</v>
       </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
@@ -7029,6 +7260,9 @@
       <c r="S79">
         <v>0</v>
       </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
@@ -7065,22 +7299,22 @@
         <v>894</v>
       </c>
       <c r="P80">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R80">
         <v>0</v>
       </c>
       <c r="S80">
-        <v>0.8000000000000002</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -7126,8 +7360,11 @@
       <c r="S81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -7173,8 +7410,11 @@
       <c r="S82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>99</v>
       </c>
@@ -7220,8 +7460,11 @@
       <c r="S83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -7267,8 +7510,11 @@
       <c r="S84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>101</v>
       </c>
@@ -7314,8 +7560,11 @@
       <c r="S85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -7361,8 +7610,11 @@
       <c r="S86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -7408,8 +7660,11 @@
       <c r="S87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="T87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -7455,8 +7710,11 @@
       <c r="S88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="T88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>105</v>
       </c>
@@ -7502,8 +7760,11 @@
       <c r="S89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>106</v>
       </c>
@@ -7549,8 +7810,11 @@
       <c r="S90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>107</v>
       </c>
@@ -7596,8 +7860,11 @@
       <c r="S91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -7643,8 +7910,11 @@
       <c r="S92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -7690,8 +7960,11 @@
       <c r="S93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -7737,8 +8010,11 @@
       <c r="S94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -7784,8 +8060,11 @@
       <c r="S95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -7831,8 +8110,11 @@
       <c r="S96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -7878,8 +8160,11 @@
       <c r="S97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -7925,8 +8210,11 @@
       <c r="S98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -7972,8 +8260,11 @@
       <c r="S99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -8019,8 +8310,11 @@
       <c r="S100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -8066,8 +8360,11 @@
       <c r="S101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -8113,8 +8410,11 @@
       <c r="S102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -8160,8 +8460,11 @@
       <c r="S103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
       <c r="B104" t="s">
         <v>312</v>
       </c>
@@ -8204,8 +8507,11 @@
       <c r="S104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="B105" t="s">
         <v>313</v>
       </c>
@@ -8248,8 +8554,11 @@
       <c r="S105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="B106" t="s">
         <v>314</v>
       </c>
@@ -8292,8 +8601,11 @@
       <c r="S106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="T106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -8339,8 +8651,11 @@
       <c r="S107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="T107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -8386,8 +8701,11 @@
       <c r="S108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="T108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -8433,8 +8751,11 @@
       <c r="S109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="T109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -8480,8 +8801,11 @@
       <c r="S110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -8527,8 +8851,11 @@
       <c r="S111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -8574,8 +8901,11 @@
       <c r="S112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="T112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -8621,8 +8951,11 @@
       <c r="S113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="T113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -8668,8 +9001,11 @@
       <c r="S114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="T114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -8715,8 +9051,11 @@
       <c r="S115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="T115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -8762,8 +9101,11 @@
       <c r="S116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:19">
+      <c r="T116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -8809,8 +9151,11 @@
       <c r="S117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="T117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -8856,8 +9201,11 @@
       <c r="S118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="T118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -8903,8 +9251,11 @@
       <c r="S119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="T119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -8950,8 +9301,11 @@
       <c r="S120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="T120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -8997,8 +9351,11 @@
       <c r="S121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="T121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -9044,8 +9401,11 @@
       <c r="S122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -9091,8 +9451,11 @@
       <c r="S123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="T123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -9138,8 +9501,11 @@
       <c r="S124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="T124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -9185,8 +9551,11 @@
       <c r="S125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="T125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -9232,8 +9601,11 @@
       <c r="S126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:19">
+      <c r="T126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -9279,8 +9651,11 @@
       <c r="S127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:19">
+      <c r="T127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -9326,8 +9701,11 @@
       <c r="S128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="T128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -9373,8 +9751,11 @@
       <c r="S129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="T129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -9420,8 +9801,11 @@
       <c r="S130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="T130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -9467,8 +9851,11 @@
       <c r="S131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="T131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -9514,8 +9901,11 @@
       <c r="S132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="T132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -9561,8 +9951,11 @@
       <c r="S133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="T133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>145</v>
       </c>
@@ -9608,8 +10001,11 @@
       <c r="S134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="T134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -9655,8 +10051,11 @@
       <c r="S135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="T135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>27</v>
       </c>
@@ -9702,8 +10101,11 @@
       <c r="S136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="T136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>147</v>
       </c>
@@ -9749,8 +10151,11 @@
       <c r="S137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:19">
+      <c r="T137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>148</v>
       </c>
@@ -9796,8 +10201,11 @@
       <c r="S138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:19">
+      <c r="T138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>149</v>
       </c>
@@ -9843,8 +10251,11 @@
       <c r="S139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:19">
+      <c r="T139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>150</v>
       </c>
@@ -9890,8 +10301,11 @@
       <c r="S140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:19">
+      <c r="T140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
         <v>151</v>
       </c>
@@ -9937,8 +10351,11 @@
       <c r="S141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:19">
+      <c r="T141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -9984,8 +10401,11 @@
       <c r="S142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:19">
+      <c r="T142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -10031,8 +10451,11 @@
       <c r="S143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:19">
+      <c r="T143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -10078,8 +10501,11 @@
       <c r="S144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:19">
+      <c r="T144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -10125,8 +10551,11 @@
       <c r="S145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:19">
+      <c r="T145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -10172,8 +10601,11 @@
       <c r="S146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:19">
+      <c r="T146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
         <v>156</v>
       </c>
@@ -10219,8 +10651,11 @@
       <c r="S147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:19">
+      <c r="T147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
         <v>157</v>
       </c>
@@ -10266,8 +10701,11 @@
       <c r="S148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:19">
+      <c r="T148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -10313,8 +10751,11 @@
       <c r="S149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:19">
+      <c r="T149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
         <v>159</v>
       </c>
@@ -10360,8 +10801,11 @@
       <c r="S150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:19">
+      <c r="T150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
         <v>160</v>
       </c>
@@ -10407,8 +10851,11 @@
       <c r="S151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:19">
+      <c r="T151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -10454,8 +10901,11 @@
       <c r="S152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:19">
+      <c r="T152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -10501,8 +10951,11 @@
       <c r="S153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:19">
+      <c r="T153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -10548,8 +11001,11 @@
       <c r="S154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:19">
+      <c r="T154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
         <v>162</v>
       </c>
@@ -10595,8 +11051,11 @@
       <c r="S155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:19">
+      <c r="T155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -10642,8 +11101,11 @@
       <c r="S156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:19">
+      <c r="T156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
         <v>164</v>
       </c>
@@ -10689,8 +11151,11 @@
       <c r="S157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:19">
+      <c r="T157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -10736,8 +11201,11 @@
       <c r="S158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:19">
+      <c r="T158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -10783,8 +11251,11 @@
       <c r="S159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:19">
+      <c r="T159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -10830,8 +11301,11 @@
       <c r="S160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:19">
+      <c r="T160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -10877,8 +11351,11 @@
       <c r="S161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:19">
+      <c r="T161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -10924,8 +11401,11 @@
       <c r="S162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:19">
+      <c r="T162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>170</v>
       </c>
@@ -10971,8 +11451,11 @@
       <c r="S163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:19">
+      <c r="T163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -11018,8 +11501,11 @@
       <c r="S164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:19">
+      <c r="T164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
       <c r="B165" t="s">
         <v>370</v>
       </c>
@@ -11062,8 +11548,11 @@
       <c r="S165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:19">
+      <c r="T165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20">
       <c r="B166" t="s">
         <v>371</v>
       </c>
@@ -11106,8 +11595,11 @@
       <c r="S166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:19">
+      <c r="T166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -11153,8 +11645,11 @@
       <c r="S167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:19">
+      <c r="T167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -11200,8 +11695,11 @@
       <c r="S168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:19">
+      <c r="T168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -11247,8 +11745,11 @@
       <c r="S169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:19">
+      <c r="T169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -11294,8 +11795,11 @@
       <c r="S170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:19">
+      <c r="T170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -11341,8 +11845,11 @@
       <c r="S171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:19">
+      <c r="T171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -11388,8 +11895,11 @@
       <c r="S172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:19">
+      <c r="T172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -11435,8 +11945,11 @@
       <c r="S173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:19">
+      <c r="T173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -11482,8 +11995,11 @@
       <c r="S174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:19">
+      <c r="T174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -11529,8 +12045,11 @@
       <c r="S175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:19">
+      <c r="T175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -11576,8 +12095,11 @@
       <c r="S176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:19">
+      <c r="T176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -11623,8 +12145,11 @@
       <c r="S177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:19">
+      <c r="T177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -11670,8 +12195,11 @@
       <c r="S178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:19">
+      <c r="T178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -11717,8 +12245,11 @@
       <c r="S179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:19">
+      <c r="T179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -11764,8 +12295,11 @@
       <c r="S180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:19">
+      <c r="T180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -11811,8 +12345,11 @@
       <c r="S181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:19">
+      <c r="T181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>27</v>
       </c>
@@ -11858,8 +12395,11 @@
       <c r="S182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>187</v>
       </c>
@@ -11905,8 +12445,11 @@
       <c r="S183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>188</v>
       </c>
@@ -11952,8 +12495,11 @@
       <c r="S184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>189</v>
       </c>
@@ -11999,8 +12545,11 @@
       <c r="S185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:19">
+      <c r="T185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>190</v>
       </c>
@@ -12046,8 +12595,11 @@
       <c r="S186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:19">
+      <c r="T186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>191</v>
       </c>
@@ -12093,8 +12645,11 @@
       <c r="S187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:19">
+      <c r="T187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>192</v>
       </c>
@@ -12140,8 +12695,11 @@
       <c r="S188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:19">
+      <c r="T188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>193</v>
       </c>
@@ -12187,8 +12745,11 @@
       <c r="S189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:19">
+      <c r="T189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>194</v>
       </c>
@@ -12234,8 +12795,11 @@
       <c r="S190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>195</v>
       </c>
@@ -12281,8 +12845,11 @@
       <c r="S191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:19">
+      <c r="T191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -12328,8 +12895,11 @@
       <c r="S192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:19">
+      <c r="T192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -12375,8 +12945,11 @@
       <c r="S193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:19">
+      <c r="T193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -12422,8 +12995,11 @@
       <c r="S194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:19">
+      <c r="T194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -12469,8 +13045,11 @@
       <c r="S195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:19">
+      <c r="T195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -12516,8 +13095,11 @@
       <c r="S196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:19">
+      <c r="T196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -12563,8 +13145,11 @@
       <c r="S197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:19">
+      <c r="T197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -12610,8 +13195,11 @@
       <c r="S198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:19">
+      <c r="T198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -12657,8 +13245,11 @@
       <c r="S199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:19">
+      <c r="T199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" t="s">
         <v>147</v>
       </c>
@@ -12704,8 +13295,11 @@
       <c r="S200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:19">
+      <c r="T200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -12751,8 +13345,11 @@
       <c r="S201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:19">
+      <c r="T201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -12798,8 +13395,11 @@
       <c r="S202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:19">
+      <c r="T202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -12845,8 +13445,11 @@
       <c r="S203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:19">
+      <c r="T203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -12892,8 +13495,11 @@
       <c r="S204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:19">
+      <c r="T204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -12939,8 +13545,11 @@
       <c r="S205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:19">
+      <c r="T205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -12986,8 +13595,11 @@
       <c r="S206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:19">
+      <c r="T206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -13033,8 +13645,11 @@
       <c r="S207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:19">
+      <c r="T207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -13080,8 +13695,11 @@
       <c r="S208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:19">
+      <c r="T208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -13127,8 +13745,11 @@
       <c r="S209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:19">
+      <c r="T209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20">
       <c r="A210" t="s">
         <v>206</v>
       </c>
@@ -13174,8 +13795,11 @@
       <c r="S210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:19">
+      <c r="T210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20">
       <c r="A211" t="s">
         <v>207</v>
       </c>
@@ -13221,8 +13845,11 @@
       <c r="S211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:19">
+      <c r="T211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
       <c r="A212" t="s">
         <v>208</v>
       </c>
@@ -13268,8 +13895,11 @@
       <c r="S212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:19">
+      <c r="T212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
       <c r="A213" t="s">
         <v>209</v>
       </c>
@@ -13315,8 +13945,11 @@
       <c r="S213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:19">
+      <c r="T213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
       <c r="A214" t="s">
         <v>210</v>
       </c>
@@ -13362,8 +13995,11 @@
       <c r="S214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:19">
+      <c r="T214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
       <c r="A215" t="s">
         <v>211</v>
       </c>
@@ -13409,8 +14045,11 @@
       <c r="S215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:19">
+      <c r="T215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
       <c r="A216" t="s">
         <v>212</v>
       </c>
@@ -13456,8 +14095,11 @@
       <c r="S216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:19">
+      <c r="T216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
       <c r="A217" t="s">
         <v>213</v>
       </c>
@@ -13503,8 +14145,11 @@
       <c r="S217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:19">
+      <c r="T217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
       <c r="A218" t="s">
         <v>214</v>
       </c>
@@ -13550,8 +14195,11 @@
       <c r="S218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:19">
+      <c r="T218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
       <c r="A219" t="s">
         <v>215</v>
       </c>
@@ -13595,6 +14243,9 @@
         <v>0</v>
       </c>
       <c r="S219">
+        <v>0</v>
+      </c>
+      <c r="T219">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="897">
   <si>
     <t>p2_cod</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>nota_iniciativa</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>LabSumapaz</t>
@@ -3296,13 +3299,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T219"/>
+  <dimension ref="A1:U219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3363,25 +3366,28 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3390,13 +3396,13 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="M2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -3414,24 +3420,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3440,13 +3446,13 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -3464,24 +3470,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3490,13 +3496,13 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3514,24 +3520,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3540,13 +3546,13 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J5" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -3564,24 +3570,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3590,13 +3596,13 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J6" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M6" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -3614,24 +3620,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -3640,13 +3646,13 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="J7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3664,24 +3670,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -3690,13 +3696,13 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="J8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M8" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -3714,24 +3720,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D9" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -3740,13 +3746,13 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3764,24 +3770,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -3790,13 +3796,13 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J10" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M10" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3814,24 +3820,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D11" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -3840,13 +3846,13 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="J11" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="M11" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3864,24 +3870,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -3890,13 +3896,13 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="J12" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="M12" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3914,24 +3920,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G13">
         <v>9</v>
@@ -3940,13 +3946,13 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="J13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M13" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3964,24 +3970,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D14" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -3990,13 +3996,13 @@
         <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="J14" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M14" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -4014,24 +4020,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -4040,13 +4046,13 @@
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J15" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M15" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -4064,24 +4070,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D16" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -4090,13 +4096,13 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -4116,22 +4122,22 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D17" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -4140,13 +4146,13 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M17" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -4166,22 +4172,22 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D18" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -4190,13 +4196,13 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M18" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -4216,22 +4222,22 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D19" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G19">
         <v>11</v>
@@ -4240,13 +4246,13 @@
         <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M19" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4266,22 +4272,22 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D20" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -4290,13 +4296,13 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M20" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -4316,22 +4322,22 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -4340,13 +4346,13 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M21" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -4366,22 +4372,22 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D22" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -4390,13 +4396,13 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M22" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4416,22 +4422,22 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D23" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -4440,13 +4446,13 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M23" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4466,22 +4472,22 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D24" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G24">
         <v>11</v>
@@ -4490,13 +4496,13 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J24" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M24" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -4516,22 +4522,22 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D25" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G25">
         <v>11</v>
@@ -4540,13 +4546,13 @@
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J25" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M25" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -4566,22 +4572,22 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C26" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D26" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G26">
         <v>11</v>
@@ -4590,13 +4596,13 @@
         <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J26" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M26" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -4616,22 +4622,22 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D27" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G27">
         <v>11</v>
@@ -4640,13 +4646,13 @@
         <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J27" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M27" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -4666,22 +4672,22 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D28" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G28">
         <v>11</v>
@@ -4690,13 +4696,13 @@
         <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J28" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M28" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -4716,22 +4722,22 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C29" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D29" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G29">
         <v>11</v>
@@ -4740,13 +4746,13 @@
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="J29" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M29" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -4766,22 +4772,22 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G30">
         <v>12</v>
@@ -4790,13 +4796,13 @@
         <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J30" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M30" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -4816,22 +4822,22 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G31">
         <v>12</v>
@@ -4840,13 +4846,13 @@
         <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J31" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M31" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -4866,22 +4872,22 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D32" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G32">
         <v>12</v>
@@ -4890,13 +4896,13 @@
         <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J32" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M32" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -4916,22 +4922,22 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D33" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G33">
         <v>12</v>
@@ -4940,13 +4946,13 @@
         <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J33" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M33" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -4966,22 +4972,22 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D34" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G34">
         <v>12</v>
@@ -4990,13 +4996,13 @@
         <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J34" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M34" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -5016,22 +5022,22 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C35" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D35" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G35">
         <v>13</v>
@@ -5040,13 +5046,13 @@
         <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J35" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M35" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -5066,22 +5072,22 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C36" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D36" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G36">
         <v>13</v>
@@ -5090,13 +5096,13 @@
         <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J36" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M36" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -5116,22 +5122,22 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C37" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D37" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G37">
         <v>13</v>
@@ -5140,13 +5146,13 @@
         <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J37" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M37" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -5166,22 +5172,22 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C38" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D38" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G38">
         <v>13</v>
@@ -5190,13 +5196,13 @@
         <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J38" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M38" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -5216,22 +5222,22 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D39" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G39">
         <v>13</v>
@@ -5240,13 +5246,13 @@
         <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J39" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M39" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -5266,22 +5272,22 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C40" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D40" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G40">
         <v>13</v>
@@ -5290,13 +5296,13 @@
         <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J40" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M40" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -5316,22 +5322,22 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D41" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G41">
         <v>13</v>
@@ -5340,13 +5346,13 @@
         <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J41" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M41" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -5366,22 +5372,22 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C42" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D42" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G42">
         <v>13</v>
@@ -5390,13 +5396,13 @@
         <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J42" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M42" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -5416,22 +5422,22 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C43" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D43" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G43">
         <v>14</v>
@@ -5440,13 +5446,13 @@
         <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J43" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M43" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -5466,22 +5472,22 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D44" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G44">
         <v>14</v>
@@ -5490,13 +5496,13 @@
         <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J44" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M44" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -5516,22 +5522,22 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D45" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -5540,13 +5546,13 @@
         <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J45" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M45" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -5566,22 +5572,22 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D46" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G46">
         <v>14</v>
@@ -5590,13 +5596,13 @@
         <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J46" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M46" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -5616,22 +5622,22 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D47" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -5640,13 +5646,13 @@
         <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J47" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M47" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -5666,22 +5672,22 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C48" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G48">
         <v>15</v>
@@ -5690,13 +5696,13 @@
         <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J48" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M48" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -5716,22 +5722,22 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D49" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G49">
         <v>15</v>
@@ -5740,13 +5746,13 @@
         <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J49" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M49" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -5766,22 +5772,22 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C50" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D50" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G50">
         <v>15</v>
@@ -5790,13 +5796,13 @@
         <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J50" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M50" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -5816,22 +5822,22 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C51" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D51" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G51">
         <v>15</v>
@@ -5840,13 +5846,13 @@
         <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J51" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M51" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -5866,22 +5872,22 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D52" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G52">
         <v>16</v>
@@ -5890,13 +5896,13 @@
         <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J52" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M52" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -5916,22 +5922,22 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C53" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D53" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G53">
         <v>16</v>
@@ -5940,13 +5946,13 @@
         <v>25</v>
       </c>
       <c r="I53" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J53" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M53" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -5966,22 +5972,22 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C54" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D54" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G54">
         <v>16</v>
@@ -5990,13 +5996,13 @@
         <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J54" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M54" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -6016,22 +6022,22 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D55" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G55">
         <v>17</v>
@@ -6040,13 +6046,13 @@
         <v>26</v>
       </c>
       <c r="I55" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="J55" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M55" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -6066,22 +6072,22 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D56" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G56">
         <v>18</v>
@@ -6090,13 +6096,13 @@
         <v>27</v>
       </c>
       <c r="I56" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="J56" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M56" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -6116,22 +6122,22 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D57" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G57">
         <v>19</v>
@@ -6140,13 +6146,13 @@
         <v>30</v>
       </c>
       <c r="I57" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J57" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M57" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -6166,22 +6172,22 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C58" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D58" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G58">
         <v>19</v>
@@ -6190,13 +6196,13 @@
         <v>30</v>
       </c>
       <c r="I58" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J58" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M58" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -6216,22 +6222,22 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C59" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D59" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G59">
         <v>20</v>
@@ -6240,13 +6246,13 @@
         <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J59" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M59" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -6266,22 +6272,22 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D60" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G60">
         <v>20</v>
@@ -6290,13 +6296,13 @@
         <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J60" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M60" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -6316,22 +6322,22 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C61" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D61" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G61">
         <v>20</v>
@@ -6340,13 +6346,13 @@
         <v>33</v>
       </c>
       <c r="I61" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J61" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M61" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -6366,22 +6372,22 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D62" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G62">
         <v>20</v>
@@ -6390,13 +6396,13 @@
         <v>33</v>
       </c>
       <c r="I62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J62" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M62" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -6416,22 +6422,22 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C63" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D63" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G63">
         <v>21</v>
@@ -6440,13 +6446,13 @@
         <v>34</v>
       </c>
       <c r="I63" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J63" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M63" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -6466,22 +6472,22 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C64" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D64" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G64">
         <v>21</v>
@@ -6490,13 +6496,13 @@
         <v>34</v>
       </c>
       <c r="I64" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J64" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M64" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -6516,22 +6522,22 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C65" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D65" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G65">
         <v>21</v>
@@ -6540,13 +6546,13 @@
         <v>34</v>
       </c>
       <c r="I65" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J65" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M65" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -6566,22 +6572,22 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C66" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D66" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G66">
         <v>22</v>
@@ -6590,13 +6596,13 @@
         <v>37</v>
       </c>
       <c r="I66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J66" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M66" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -6616,22 +6622,22 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D67" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G67">
         <v>22</v>
@@ -6640,13 +6646,13 @@
         <v>37</v>
       </c>
       <c r="I67" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J67" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M67" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -6666,22 +6672,22 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D68" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G68">
         <v>23</v>
@@ -6690,13 +6696,13 @@
         <v>38</v>
       </c>
       <c r="I68" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J68" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M68" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -6716,22 +6722,22 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D69" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G69">
         <v>23</v>
@@ -6740,13 +6746,13 @@
         <v>38</v>
       </c>
       <c r="I69" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J69" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M69" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -6766,22 +6772,22 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C70" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D70" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G70">
         <v>23</v>
@@ -6790,13 +6796,13 @@
         <v>38</v>
       </c>
       <c r="I70" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J70" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M70" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -6816,22 +6822,22 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C71" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D71" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G71">
         <v>23</v>
@@ -6840,13 +6846,13 @@
         <v>38</v>
       </c>
       <c r="I71" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J71" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M71" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -6866,22 +6872,22 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C72" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D72" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G72">
         <v>23</v>
@@ -6890,13 +6896,13 @@
         <v>38</v>
       </c>
       <c r="I72" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J72" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M72" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -6916,22 +6922,22 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C73" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D73" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G73">
         <v>24</v>
@@ -6940,13 +6946,13 @@
         <v>51</v>
       </c>
       <c r="I73" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J73" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M73" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -6966,22 +6972,22 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C74" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D74" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G74">
         <v>24</v>
@@ -6990,13 +6996,13 @@
         <v>51</v>
       </c>
       <c r="I74" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J74" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M74" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -7016,22 +7022,22 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C75" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D75" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G75">
         <v>24</v>
@@ -7040,13 +7046,13 @@
         <v>51</v>
       </c>
       <c r="I75" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J75" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M75" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -7066,22 +7072,22 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C76" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D76" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G76">
         <v>24</v>
@@ -7090,13 +7096,13 @@
         <v>51</v>
       </c>
       <c r="I76" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J76" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M76" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -7116,22 +7122,22 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C77" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D77" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G77">
         <v>25</v>
@@ -7140,13 +7146,13 @@
         <v>52</v>
       </c>
       <c r="I77" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J77" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="M77" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -7166,22 +7172,22 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C78" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D78" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G78">
         <v>25</v>
@@ -7190,13 +7196,13 @@
         <v>52</v>
       </c>
       <c r="I78" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J78" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="M78" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -7216,22 +7222,22 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C79" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D79" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G79">
         <v>26</v>
@@ -7240,13 +7246,13 @@
         <v>55</v>
       </c>
       <c r="I79" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="J79" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M79" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -7266,22 +7272,22 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C80" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D80" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G80">
         <v>27</v>
@@ -7290,13 +7296,13 @@
         <v>56</v>
       </c>
       <c r="I80" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="J80" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M80" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -7314,24 +7320,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C81" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D81" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G81">
         <v>28</v>
@@ -7340,48 +7346,51 @@
         <v>57</v>
       </c>
       <c r="I81" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="J81" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M81" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S81">
         <v>0</v>
       </c>
       <c r="T81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+        <v>0.9333333333333332</v>
+      </c>
+      <c r="U81">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C82" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D82" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G82">
         <v>28</v>
@@ -7390,48 +7399,48 @@
         <v>57</v>
       </c>
       <c r="I82" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="J82" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M82" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S82">
         <v>0</v>
       </c>
       <c r="T82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+        <v>0.4333333333333333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C83" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D83" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G83">
         <v>29</v>
@@ -7440,13 +7449,13 @@
         <v>58</v>
       </c>
       <c r="I83" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="J83" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M83" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -7464,24 +7473,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C84" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D84" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G84">
         <v>29</v>
@@ -7490,13 +7499,13 @@
         <v>58</v>
       </c>
       <c r="I84" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="J84" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M84" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -7514,24 +7523,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C85" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D85" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G85">
         <v>29</v>
@@ -7540,13 +7549,13 @@
         <v>58</v>
       </c>
       <c r="I85" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="J85" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M85" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -7564,24 +7573,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D86" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G86">
         <v>30</v>
@@ -7590,13 +7599,13 @@
         <v>59</v>
       </c>
       <c r="I86" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J86" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M86" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -7614,24 +7623,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C87" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D87" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G87">
         <v>30</v>
@@ -7640,13 +7649,13 @@
         <v>59</v>
       </c>
       <c r="I87" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J87" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M87" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -7664,24 +7673,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C88" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D88" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G88">
         <v>30</v>
@@ -7690,13 +7699,13 @@
         <v>59</v>
       </c>
       <c r="I88" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J88" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M88" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -7714,24 +7723,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C89" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D89" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G89">
         <v>30</v>
@@ -7740,13 +7749,13 @@
         <v>59</v>
       </c>
       <c r="I89" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J89" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M89" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -7764,24 +7773,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C90" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D90" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G90">
         <v>30</v>
@@ -7790,13 +7799,13 @@
         <v>59</v>
       </c>
       <c r="I90" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J90" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M90" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -7814,24 +7823,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:21">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D91" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G91">
         <v>30</v>
@@ -7840,13 +7849,13 @@
         <v>59</v>
       </c>
       <c r="I91" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J91" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M91" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -7864,24 +7873,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:21">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C92" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D92" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G92">
         <v>30</v>
@@ -7890,13 +7899,13 @@
         <v>59</v>
       </c>
       <c r="I92" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J92" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M92" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -7914,24 +7923,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:21">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C93" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D93" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G93">
         <v>30</v>
@@ -7940,13 +7949,13 @@
         <v>59</v>
       </c>
       <c r="I93" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J93" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M93" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -7964,24 +7973,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:21">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C94" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D94" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G94">
         <v>30</v>
@@ -7990,13 +7999,13 @@
         <v>59</v>
       </c>
       <c r="I94" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J94" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M94" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -8014,24 +8023,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:21">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C95" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D95" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G95">
         <v>30</v>
@@ -8040,13 +8049,13 @@
         <v>59</v>
       </c>
       <c r="I95" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J95" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M95" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -8064,24 +8073,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:21">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C96" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D96" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G96">
         <v>30</v>
@@ -8090,13 +8099,13 @@
         <v>59</v>
       </c>
       <c r="I96" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J96" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M96" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -8116,22 +8125,22 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C97" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D97" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G97">
         <v>30</v>
@@ -8140,13 +8149,13 @@
         <v>59</v>
       </c>
       <c r="I97" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J97" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M97" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -8166,22 +8175,22 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C98" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D98" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G98">
         <v>30</v>
@@ -8190,13 +8199,13 @@
         <v>59</v>
       </c>
       <c r="I98" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J98" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M98" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -8216,22 +8225,22 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C99" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D99" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G99">
         <v>31</v>
@@ -8240,13 +8249,13 @@
         <v>60</v>
       </c>
       <c r="I99" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J99" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M99" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -8266,22 +8275,22 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C100" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D100" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G100">
         <v>31</v>
@@ -8290,13 +8299,13 @@
         <v>60</v>
       </c>
       <c r="I100" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J100" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M100" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -8316,22 +8325,22 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C101" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D101" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G101">
         <v>31</v>
@@ -8340,13 +8349,13 @@
         <v>60</v>
       </c>
       <c r="I101" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J101" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M101" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -8366,22 +8375,22 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C102" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D102" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G102">
         <v>31</v>
@@ -8390,13 +8399,13 @@
         <v>60</v>
       </c>
       <c r="I102" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J102" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M102" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -8416,22 +8425,22 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C103" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D103" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G103">
         <v>31</v>
@@ -8440,13 +8449,13 @@
         <v>60</v>
       </c>
       <c r="I103" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J103" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M103" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -8466,19 +8475,19 @@
     </row>
     <row r="104" spans="1:20">
       <c r="B104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C104" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D104" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G104">
         <v>31</v>
@@ -8487,13 +8496,13 @@
         <v>60</v>
       </c>
       <c r="I104" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J104" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M104" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -8513,19 +8522,19 @@
     </row>
     <row r="105" spans="1:20">
       <c r="B105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C105" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D105" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G105">
         <v>31</v>
@@ -8534,13 +8543,13 @@
         <v>60</v>
       </c>
       <c r="I105" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J105" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M105" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -8560,19 +8569,19 @@
     </row>
     <row r="106" spans="1:20">
       <c r="B106" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C106" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D106" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G106">
         <v>31</v>
@@ -8581,13 +8590,13 @@
         <v>60</v>
       </c>
       <c r="I106" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J106" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M106" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -8607,22 +8616,22 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C107" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D107" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G107">
         <v>32</v>
@@ -8631,13 +8640,13 @@
         <v>61</v>
       </c>
       <c r="I107" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="J107" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M107" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -8657,22 +8666,22 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C108" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D108" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G108">
         <v>32</v>
@@ -8681,13 +8690,13 @@
         <v>61</v>
       </c>
       <c r="I108" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="J108" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M108" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -8707,22 +8716,22 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C109" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D109" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G109">
         <v>33</v>
@@ -8731,13 +8740,13 @@
         <v>63</v>
       </c>
       <c r="I109" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J109" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M109" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -8757,22 +8766,22 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C110" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D110" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G110">
         <v>33</v>
@@ -8781,13 +8790,13 @@
         <v>63</v>
       </c>
       <c r="I110" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J110" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M110" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -8807,22 +8816,22 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C111" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D111" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G111">
         <v>33</v>
@@ -8831,13 +8840,13 @@
         <v>63</v>
       </c>
       <c r="I111" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J111" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M111" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -8857,22 +8866,22 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B112" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C112" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D112" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G112">
         <v>33</v>
@@ -8881,13 +8890,13 @@
         <v>63</v>
       </c>
       <c r="I112" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J112" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M112" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -8907,22 +8916,22 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B113" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C113" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D113" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G113">
         <v>33</v>
@@ -8931,13 +8940,13 @@
         <v>63</v>
       </c>
       <c r="I113" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J113" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M113" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -8957,22 +8966,22 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C114" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D114" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G114">
         <v>33</v>
@@ -8981,13 +8990,13 @@
         <v>63</v>
       </c>
       <c r="I114" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J114" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M114" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -9007,22 +9016,22 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C115" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D115" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G115">
         <v>33</v>
@@ -9031,13 +9040,13 @@
         <v>63</v>
       </c>
       <c r="I115" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J115" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M115" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -9057,22 +9066,22 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C116" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D116" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G116">
         <v>33</v>
@@ -9081,13 +9090,13 @@
         <v>63</v>
       </c>
       <c r="I116" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J116" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M116" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -9107,22 +9116,22 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C117" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D117" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G117">
         <v>33</v>
@@ -9131,13 +9140,13 @@
         <v>63</v>
       </c>
       <c r="I117" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J117" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M117" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -9157,22 +9166,22 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B118" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C118" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D118" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G118">
         <v>33</v>
@@ -9181,13 +9190,13 @@
         <v>63</v>
       </c>
       <c r="I118" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J118" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M118" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -9207,22 +9216,22 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C119" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D119" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G119">
         <v>33</v>
@@ -9231,13 +9240,13 @@
         <v>63</v>
       </c>
       <c r="I119" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J119" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M119" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -9257,22 +9266,22 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B120" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C120" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D120" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E120">
         <v>119</v>
       </c>
       <c r="F120" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G120">
         <v>33</v>
@@ -9281,13 +9290,13 @@
         <v>63</v>
       </c>
       <c r="I120" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J120" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M120" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -9307,22 +9316,22 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B121" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C121" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D121" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E121">
         <v>120</v>
       </c>
       <c r="F121" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G121">
         <v>33</v>
@@ -9331,13 +9340,13 @@
         <v>63</v>
       </c>
       <c r="I121" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J121" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M121" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -9357,22 +9366,22 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B122" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C122" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D122" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E122">
         <v>121</v>
       </c>
       <c r="F122" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G122">
         <v>33</v>
@@ -9381,13 +9390,13 @@
         <v>63</v>
       </c>
       <c r="I122" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J122" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M122" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -9407,22 +9416,22 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C123" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D123" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E123">
         <v>122</v>
       </c>
       <c r="F123" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G123">
         <v>34</v>
@@ -9431,13 +9440,13 @@
         <v>64</v>
       </c>
       <c r="I123" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J123" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M123" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -9457,22 +9466,22 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C124" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D124" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E124">
         <v>123</v>
       </c>
       <c r="F124" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G124">
         <v>34</v>
@@ -9481,13 +9490,13 @@
         <v>64</v>
       </c>
       <c r="I124" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J124" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M124" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -9507,22 +9516,22 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B125" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C125" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D125" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E125">
         <v>124</v>
       </c>
       <c r="F125" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G125">
         <v>35</v>
@@ -9531,13 +9540,13 @@
         <v>75</v>
       </c>
       <c r="I125" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J125" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M125" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -9557,22 +9566,22 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C126" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D126" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E126">
         <v>125</v>
       </c>
       <c r="F126" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G126">
         <v>36</v>
@@ -9581,13 +9590,13 @@
         <v>77</v>
       </c>
       <c r="I126" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="J126" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M126" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -9607,22 +9616,22 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B127" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C127" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D127" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E127">
         <v>126</v>
       </c>
       <c r="F127" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G127">
         <v>36</v>
@@ -9631,13 +9640,13 @@
         <v>77</v>
       </c>
       <c r="I127" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="J127" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M127" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -9657,22 +9666,22 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C128" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D128" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E128">
         <v>127</v>
       </c>
       <c r="F128" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G128">
         <v>36</v>
@@ -9681,13 +9690,13 @@
         <v>77</v>
       </c>
       <c r="I128" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="J128" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M128" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -9707,22 +9716,22 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C129" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D129" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G129">
         <v>37</v>
@@ -9731,13 +9740,13 @@
         <v>78</v>
       </c>
       <c r="I129" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="J129" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M129" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -9757,22 +9766,22 @@
     </row>
     <row r="130" spans="1:20">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B130" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C130" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D130" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G130">
         <v>38</v>
@@ -9781,13 +9790,13 @@
         <v>80</v>
       </c>
       <c r="I130" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J130" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M130" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -9807,22 +9816,22 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B131" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C131" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D131" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E131">
         <v>130</v>
       </c>
       <c r="F131" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G131">
         <v>38</v>
@@ -9831,13 +9840,13 @@
         <v>80</v>
       </c>
       <c r="I131" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J131" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M131" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -9857,22 +9866,22 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B132" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C132" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D132" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E132">
         <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G132">
         <v>38</v>
@@ -9881,13 +9890,13 @@
         <v>80</v>
       </c>
       <c r="I132" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J132" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M132" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -9907,22 +9916,22 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B133" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C133" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D133" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E133">
         <v>132</v>
       </c>
       <c r="F133" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G133">
         <v>38</v>
@@ -9931,13 +9940,13 @@
         <v>80</v>
       </c>
       <c r="I133" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J133" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M133" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -9957,22 +9966,22 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B134" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C134" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D134" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E134">
         <v>133</v>
       </c>
       <c r="F134" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G134">
         <v>38</v>
@@ -9981,13 +9990,13 @@
         <v>80</v>
       </c>
       <c r="I134" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J134" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M134" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -10007,22 +10016,22 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B135" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C135" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D135" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G135">
         <v>38</v>
@@ -10031,13 +10040,13 @@
         <v>80</v>
       </c>
       <c r="I135" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J135" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M135" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -10057,22 +10066,22 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B136" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C136" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D136" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G136">
         <v>39</v>
@@ -10081,13 +10090,13 @@
         <v>81</v>
       </c>
       <c r="I136" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="J136" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M136" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -10107,22 +10116,22 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C137" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D137" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G137">
         <v>39</v>
@@ -10131,13 +10140,13 @@
         <v>81</v>
       </c>
       <c r="I137" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="J137" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M137" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -10157,22 +10166,22 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C138" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D138" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G138">
         <v>39</v>
@@ -10181,13 +10190,13 @@
         <v>81</v>
       </c>
       <c r="I138" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="J138" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M138" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -10207,22 +10216,22 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C139" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D139" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G139">
         <v>41</v>
@@ -10231,13 +10240,13 @@
         <v>83</v>
       </c>
       <c r="I139" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="J139" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M139" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -10257,22 +10266,22 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B140" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C140" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D140" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E140">
         <v>139</v>
       </c>
       <c r="F140" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G140">
         <v>42</v>
@@ -10281,13 +10290,13 @@
         <v>84</v>
       </c>
       <c r="I140" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="J140" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M140" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -10307,22 +10316,22 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C141" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D141" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G141">
         <v>42</v>
@@ -10331,13 +10340,13 @@
         <v>84</v>
       </c>
       <c r="I141" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="J141" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M141" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -10357,22 +10366,22 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B142" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C142" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D142" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G142">
         <v>42</v>
@@ -10381,13 +10390,13 @@
         <v>84</v>
       </c>
       <c r="I142" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="J142" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M142" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -10407,22 +10416,22 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B143" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C143" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D143" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G143">
         <v>44</v>
@@ -10431,13 +10440,13 @@
         <v>87</v>
       </c>
       <c r="I143" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J143" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M143" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -10457,22 +10466,22 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B144" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C144" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D144" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E144">
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G144">
         <v>44</v>
@@ -10481,13 +10490,13 @@
         <v>87</v>
       </c>
       <c r="I144" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J144" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M144" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -10507,22 +10516,22 @@
     </row>
     <row r="145" spans="1:20">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B145" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C145" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D145" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E145">
         <v>144</v>
       </c>
       <c r="F145" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G145">
         <v>44</v>
@@ -10531,13 +10540,13 @@
         <v>87</v>
       </c>
       <c r="I145" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J145" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M145" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P145">
         <v>0</v>
@@ -10557,22 +10566,22 @@
     </row>
     <row r="146" spans="1:20">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C146" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D146" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E146">
         <v>145</v>
       </c>
       <c r="F146" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G146">
         <v>44</v>
@@ -10581,13 +10590,13 @@
         <v>87</v>
       </c>
       <c r="I146" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J146" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M146" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -10607,22 +10616,22 @@
     </row>
     <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B147" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C147" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D147" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E147">
         <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G147">
         <v>45</v>
@@ -10631,13 +10640,13 @@
         <v>88</v>
       </c>
       <c r="I147" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="J147" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M147" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -10657,22 +10666,22 @@
     </row>
     <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C148" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D148" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E148">
         <v>147</v>
       </c>
       <c r="F148" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G148">
         <v>45</v>
@@ -10681,13 +10690,13 @@
         <v>88</v>
       </c>
       <c r="I148" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="J148" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M148" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P148">
         <v>0</v>
@@ -10707,22 +10716,22 @@
     </row>
     <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B149" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C149" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D149" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E149">
         <v>148</v>
       </c>
       <c r="F149" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G149">
         <v>45</v>
@@ -10731,13 +10740,13 @@
         <v>88</v>
       </c>
       <c r="I149" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="J149" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M149" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -10757,22 +10766,22 @@
     </row>
     <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B150" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C150" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D150" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E150">
         <v>149</v>
       </c>
       <c r="F150" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G150">
         <v>45</v>
@@ -10781,13 +10790,13 @@
         <v>88</v>
       </c>
       <c r="I150" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="J150" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M150" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -10807,22 +10816,22 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B151" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C151" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D151" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E151">
         <v>150</v>
       </c>
       <c r="F151" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G151">
         <v>46</v>
@@ -10831,13 +10840,13 @@
         <v>90</v>
       </c>
       <c r="I151" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="J151" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M151" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P151">
         <v>0</v>
@@ -10857,22 +10866,22 @@
     </row>
     <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C152" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D152" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E152">
         <v>151</v>
       </c>
       <c r="F152" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G152">
         <v>46</v>
@@ -10881,13 +10890,13 @@
         <v>90</v>
       </c>
       <c r="I152" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="J152" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M152" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -10907,22 +10916,22 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C153" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D153" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E153">
         <v>152</v>
       </c>
       <c r="F153" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G153">
         <v>47</v>
@@ -10931,13 +10940,13 @@
         <v>91</v>
       </c>
       <c r="I153" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J153" s="2">
         <v>45043.91625</v>
       </c>
       <c r="M153" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P153">
         <v>0</v>
@@ -10957,22 +10966,22 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B154" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C154" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D154" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E154">
         <v>153</v>
       </c>
       <c r="F154" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G154">
         <v>47</v>
@@ -10981,13 +10990,13 @@
         <v>91</v>
       </c>
       <c r="I154" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J154" s="2">
         <v>45043.91625</v>
       </c>
       <c r="M154" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -11007,22 +11016,22 @@
     </row>
     <row r="155" spans="1:20">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C155" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D155" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E155">
         <v>154</v>
       </c>
       <c r="F155" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G155">
         <v>48</v>
@@ -11031,13 +11040,13 @@
         <v>92</v>
       </c>
       <c r="I155" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="J155" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M155" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -11057,22 +11066,22 @@
     </row>
     <row r="156" spans="1:20">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C156" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D156" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E156">
         <v>155</v>
       </c>
       <c r="F156" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G156">
         <v>49</v>
@@ -11081,13 +11090,13 @@
         <v>93</v>
       </c>
       <c r="I156" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J156" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M156" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -11107,22 +11116,22 @@
     </row>
     <row r="157" spans="1:20">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C157" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D157" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E157">
         <v>156</v>
       </c>
       <c r="F157" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G157">
         <v>49</v>
@@ -11131,13 +11140,13 @@
         <v>93</v>
       </c>
       <c r="I157" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J157" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M157" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P157">
         <v>0</v>
@@ -11157,22 +11166,22 @@
     </row>
     <row r="158" spans="1:20">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C158" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D158" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E158">
         <v>157</v>
       </c>
       <c r="F158" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G158">
         <v>49</v>
@@ -11181,13 +11190,13 @@
         <v>93</v>
       </c>
       <c r="I158" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J158" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M158" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P158">
         <v>0</v>
@@ -11207,22 +11216,22 @@
     </row>
     <row r="159" spans="1:20">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B159" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C159" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D159" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E159">
         <v>158</v>
       </c>
       <c r="F159" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G159">
         <v>49</v>
@@ -11231,13 +11240,13 @@
         <v>93</v>
       </c>
       <c r="I159" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J159" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M159" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P159">
         <v>0</v>
@@ -11257,22 +11266,22 @@
     </row>
     <row r="160" spans="1:20">
       <c r="A160" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C160" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D160" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E160">
         <v>159</v>
       </c>
       <c r="F160" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G160">
         <v>49</v>
@@ -11281,13 +11290,13 @@
         <v>93</v>
       </c>
       <c r="I160" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J160" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M160" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P160">
         <v>0</v>
@@ -11307,22 +11316,22 @@
     </row>
     <row r="161" spans="1:20">
       <c r="A161" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C161" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D161" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E161">
         <v>160</v>
       </c>
       <c r="F161" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G161">
         <v>49</v>
@@ -11331,13 +11340,13 @@
         <v>93</v>
       </c>
       <c r="I161" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J161" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M161" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -11357,22 +11366,22 @@
     </row>
     <row r="162" spans="1:20">
       <c r="A162" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C162" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D162" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E162">
         <v>161</v>
       </c>
       <c r="F162" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G162">
         <v>49</v>
@@ -11381,13 +11390,13 @@
         <v>93</v>
       </c>
       <c r="I162" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J162" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M162" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -11407,22 +11416,22 @@
     </row>
     <row r="163" spans="1:20">
       <c r="A163" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C163" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D163" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E163">
         <v>162</v>
       </c>
       <c r="F163" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G163">
         <v>50</v>
@@ -11431,13 +11440,13 @@
         <v>94</v>
       </c>
       <c r="I163" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="J163" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M163" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P163">
         <v>0</v>
@@ -11457,22 +11466,22 @@
     </row>
     <row r="164" spans="1:20">
       <c r="A164" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C164" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D164" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E164">
         <v>163</v>
       </c>
       <c r="F164" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G164">
         <v>50</v>
@@ -11481,13 +11490,13 @@
         <v>94</v>
       </c>
       <c r="I164" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="J164" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M164" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -11507,19 +11516,19 @@
     </row>
     <row r="165" spans="1:20">
       <c r="B165" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C165" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D165" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E165">
         <v>164</v>
       </c>
       <c r="F165" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G165">
         <v>50</v>
@@ -11528,13 +11537,13 @@
         <v>94</v>
       </c>
       <c r="I165" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="J165" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M165" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -11554,19 +11563,19 @@
     </row>
     <row r="166" spans="1:20">
       <c r="B166" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C166" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D166" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E166">
         <v>165</v>
       </c>
       <c r="F166" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G166">
         <v>50</v>
@@ -11575,13 +11584,13 @@
         <v>94</v>
       </c>
       <c r="I166" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="J166" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M166" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -11601,22 +11610,22 @@
     </row>
     <row r="167" spans="1:20">
       <c r="A167" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C167" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D167" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E167">
         <v>166</v>
       </c>
       <c r="F167" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G167">
         <v>51</v>
@@ -11625,13 +11634,13 @@
         <v>95</v>
       </c>
       <c r="I167" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J167" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M167" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -11651,22 +11660,22 @@
     </row>
     <row r="168" spans="1:20">
       <c r="A168" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C168" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D168" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E168">
         <v>167</v>
       </c>
       <c r="F168" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G168">
         <v>51</v>
@@ -11675,13 +11684,13 @@
         <v>95</v>
       </c>
       <c r="I168" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J168" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M168" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P168">
         <v>0</v>
@@ -11701,22 +11710,22 @@
     </row>
     <row r="169" spans="1:20">
       <c r="A169" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C169" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D169" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E169">
         <v>168</v>
       </c>
       <c r="F169" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G169">
         <v>51</v>
@@ -11725,13 +11734,13 @@
         <v>95</v>
       </c>
       <c r="I169" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J169" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M169" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -11751,22 +11760,22 @@
     </row>
     <row r="170" spans="1:20">
       <c r="A170" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C170" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D170" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E170">
         <v>169</v>
       </c>
       <c r="F170" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G170">
         <v>51</v>
@@ -11775,13 +11784,13 @@
         <v>95</v>
       </c>
       <c r="I170" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J170" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M170" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P170">
         <v>0</v>
@@ -11801,22 +11810,22 @@
     </row>
     <row r="171" spans="1:20">
       <c r="A171" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C171" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D171" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E171">
         <v>170</v>
       </c>
       <c r="F171" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G171">
         <v>51</v>
@@ -11825,13 +11834,13 @@
         <v>95</v>
       </c>
       <c r="I171" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J171" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M171" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P171">
         <v>0</v>
@@ -11851,22 +11860,22 @@
     </row>
     <row r="172" spans="1:20">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C172" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D172" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E172">
         <v>171</v>
       </c>
       <c r="F172" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G172">
         <v>51</v>
@@ -11875,13 +11884,13 @@
         <v>95</v>
       </c>
       <c r="I172" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J172" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M172" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P172">
         <v>0</v>
@@ -11901,22 +11910,22 @@
     </row>
     <row r="173" spans="1:20">
       <c r="A173" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C173" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D173" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E173">
         <v>172</v>
       </c>
       <c r="F173" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G173">
         <v>51</v>
@@ -11925,13 +11934,13 @@
         <v>95</v>
       </c>
       <c r="I173" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J173" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M173" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -11951,22 +11960,22 @@
     </row>
     <row r="174" spans="1:20">
       <c r="A174" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C174" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D174" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E174">
         <v>173</v>
       </c>
       <c r="F174" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G174">
         <v>51</v>
@@ -11975,13 +11984,13 @@
         <v>95</v>
       </c>
       <c r="I174" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J174" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M174" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -12001,22 +12010,22 @@
     </row>
     <row r="175" spans="1:20">
       <c r="A175" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C175" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D175" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E175">
         <v>174</v>
       </c>
       <c r="F175" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G175">
         <v>51</v>
@@ -12025,13 +12034,13 @@
         <v>95</v>
       </c>
       <c r="I175" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J175" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M175" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -12051,22 +12060,22 @@
     </row>
     <row r="176" spans="1:20">
       <c r="A176" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C176" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D176" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E176">
         <v>175</v>
       </c>
       <c r="F176" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G176">
         <v>51</v>
@@ -12075,13 +12084,13 @@
         <v>95</v>
       </c>
       <c r="I176" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J176" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M176" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -12101,22 +12110,22 @@
     </row>
     <row r="177" spans="1:20">
       <c r="A177" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C177" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D177" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E177">
         <v>176</v>
       </c>
       <c r="F177" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G177">
         <v>51</v>
@@ -12125,13 +12134,13 @@
         <v>95</v>
       </c>
       <c r="I177" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J177" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M177" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P177">
         <v>0</v>
@@ -12151,22 +12160,22 @@
     </row>
     <row r="178" spans="1:20">
       <c r="A178" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C178" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D178" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E178">
         <v>177</v>
       </c>
       <c r="F178" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G178">
         <v>51</v>
@@ -12175,13 +12184,13 @@
         <v>95</v>
       </c>
       <c r="I178" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J178" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M178" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P178">
         <v>0</v>
@@ -12201,22 +12210,22 @@
     </row>
     <row r="179" spans="1:20">
       <c r="A179" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C179" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D179" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E179">
         <v>178</v>
       </c>
       <c r="F179" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G179">
         <v>51</v>
@@ -12225,13 +12234,13 @@
         <v>95</v>
       </c>
       <c r="I179" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J179" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M179" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -12251,22 +12260,22 @@
     </row>
     <row r="180" spans="1:20">
       <c r="A180" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C180" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D180" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E180">
         <v>179</v>
       </c>
       <c r="F180" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G180">
         <v>51</v>
@@ -12275,13 +12284,13 @@
         <v>95</v>
       </c>
       <c r="I180" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J180" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M180" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P180">
         <v>0</v>
@@ -12301,22 +12310,22 @@
     </row>
     <row r="181" spans="1:20">
       <c r="A181" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C181" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D181" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E181">
         <v>180</v>
       </c>
       <c r="F181" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G181">
         <v>53</v>
@@ -12325,13 +12334,13 @@
         <v>98</v>
       </c>
       <c r="I181" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J181" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M181" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -12351,22 +12360,22 @@
     </row>
     <row r="182" spans="1:20">
       <c r="A182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B182" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C182" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D182" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E182">
         <v>181</v>
       </c>
       <c r="F182" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G182">
         <v>54</v>
@@ -12375,13 +12384,13 @@
         <v>99</v>
       </c>
       <c r="I182" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="J182" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M182" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -12401,22 +12410,22 @@
     </row>
     <row r="183" spans="1:20">
       <c r="A183" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C183" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D183" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E183">
         <v>182</v>
       </c>
       <c r="F183" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G183">
         <v>54</v>
@@ -12425,13 +12434,13 @@
         <v>99</v>
       </c>
       <c r="I183" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="J183" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M183" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P183">
         <v>0</v>
@@ -12451,22 +12460,22 @@
     </row>
     <row r="184" spans="1:20">
       <c r="A184" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C184" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D184" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E184">
         <v>183</v>
       </c>
       <c r="F184" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G184">
         <v>54</v>
@@ -12475,13 +12484,13 @@
         <v>99</v>
       </c>
       <c r="I184" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="J184" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M184" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P184">
         <v>0</v>
@@ -12501,22 +12510,22 @@
     </row>
     <row r="185" spans="1:20">
       <c r="A185" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C185" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D185" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E185">
         <v>184</v>
       </c>
       <c r="F185" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G185">
         <v>55</v>
@@ -12525,13 +12534,13 @@
         <v>100</v>
       </c>
       <c r="I185" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="J185" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M185" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -12551,22 +12560,22 @@
     </row>
     <row r="186" spans="1:20">
       <c r="A186" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C186" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D186" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E186">
         <v>185</v>
       </c>
       <c r="F186" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G186">
         <v>55</v>
@@ -12575,13 +12584,13 @@
         <v>100</v>
       </c>
       <c r="I186" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="J186" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M186" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P186">
         <v>0</v>
@@ -12601,22 +12610,22 @@
     </row>
     <row r="187" spans="1:20">
       <c r="A187" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C187" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D187" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E187">
         <v>186</v>
       </c>
       <c r="F187" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G187">
         <v>56</v>
@@ -12625,13 +12634,13 @@
         <v>101</v>
       </c>
       <c r="I187" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="J187" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M187" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P187">
         <v>0</v>
@@ -12651,22 +12660,22 @@
     </row>
     <row r="188" spans="1:20">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B188" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C188" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D188" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E188">
         <v>187</v>
       </c>
       <c r="F188" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G188">
         <v>56</v>
@@ -12675,13 +12684,13 @@
         <v>101</v>
       </c>
       <c r="I188" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="J188" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M188" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P188">
         <v>0</v>
@@ -12701,22 +12710,22 @@
     </row>
     <row r="189" spans="1:20">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C189" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D189" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E189">
         <v>188</v>
       </c>
       <c r="F189" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G189">
         <v>56</v>
@@ -12725,13 +12734,13 @@
         <v>101</v>
       </c>
       <c r="I189" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="J189" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M189" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P189">
         <v>0</v>
@@ -12751,22 +12760,22 @@
     </row>
     <row r="190" spans="1:20">
       <c r="A190" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C190" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D190" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E190">
         <v>189</v>
       </c>
       <c r="F190" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G190">
         <v>56</v>
@@ -12775,13 +12784,13 @@
         <v>101</v>
       </c>
       <c r="I190" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="J190" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M190" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P190">
         <v>0</v>
@@ -12801,22 +12810,22 @@
     </row>
     <row r="191" spans="1:20">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C191" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D191" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E191">
         <v>190</v>
       </c>
       <c r="F191" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G191">
         <v>57</v>
@@ -12825,13 +12834,13 @@
         <v>102</v>
       </c>
       <c r="I191" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J191" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M191" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P191">
         <v>0</v>
@@ -12851,22 +12860,22 @@
     </row>
     <row r="192" spans="1:20">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B192" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C192" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D192" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E192">
         <v>191</v>
       </c>
       <c r="F192" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G192">
         <v>57</v>
@@ -12875,13 +12884,13 @@
         <v>102</v>
       </c>
       <c r="I192" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J192" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M192" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P192">
         <v>0</v>
@@ -12901,22 +12910,22 @@
     </row>
     <row r="193" spans="1:20">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C193" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D193" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E193">
         <v>192</v>
       </c>
       <c r="F193" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G193">
         <v>57</v>
@@ -12925,13 +12934,13 @@
         <v>102</v>
       </c>
       <c r="I193" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J193" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M193" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P193">
         <v>0</v>
@@ -12951,22 +12960,22 @@
     </row>
     <row r="194" spans="1:20">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C194" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D194" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E194">
         <v>193</v>
       </c>
       <c r="F194" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G194">
         <v>57</v>
@@ -12975,13 +12984,13 @@
         <v>102</v>
       </c>
       <c r="I194" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J194" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M194" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P194">
         <v>0</v>
@@ -13001,22 +13010,22 @@
     </row>
     <row r="195" spans="1:20">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C195" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D195" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E195">
         <v>194</v>
       </c>
       <c r="F195" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G195">
         <v>58</v>
@@ -13025,13 +13034,13 @@
         <v>103</v>
       </c>
       <c r="I195" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="J195" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M195" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -13051,22 +13060,22 @@
     </row>
     <row r="196" spans="1:20">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D196" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E196">
         <v>195</v>
       </c>
       <c r="F196" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G196">
         <v>59</v>
@@ -13075,13 +13084,13 @@
         <v>104</v>
       </c>
       <c r="I196" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J196" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="M196" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P196">
         <v>0</v>
@@ -13101,22 +13110,22 @@
     </row>
     <row r="197" spans="1:20">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C197" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D197" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E197">
         <v>196</v>
       </c>
       <c r="F197" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G197">
         <v>60</v>
@@ -13125,13 +13134,13 @@
         <v>105</v>
       </c>
       <c r="I197" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="J197" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M197" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -13151,22 +13160,22 @@
     </row>
     <row r="198" spans="1:20">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D198" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E198">
         <v>197</v>
       </c>
       <c r="F198" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G198">
         <v>61</v>
@@ -13175,13 +13184,13 @@
         <v>106</v>
       </c>
       <c r="I198" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="J198" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M198" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P198">
         <v>0</v>
@@ -13201,22 +13210,22 @@
     </row>
     <row r="199" spans="1:20">
       <c r="A199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B199" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C199" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D199" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E199">
         <v>198</v>
       </c>
       <c r="F199" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G199">
         <v>64</v>
@@ -13225,13 +13234,13 @@
         <v>111</v>
       </c>
       <c r="I199" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J199" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M199" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P199">
         <v>0</v>
@@ -13251,22 +13260,22 @@
     </row>
     <row r="200" spans="1:20">
       <c r="A200" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B200" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C200" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D200" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E200">
         <v>199</v>
       </c>
       <c r="F200" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G200">
         <v>64</v>
@@ -13275,13 +13284,13 @@
         <v>111</v>
       </c>
       <c r="I200" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J200" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M200" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P200">
         <v>0</v>
@@ -13301,22 +13310,22 @@
     </row>
     <row r="201" spans="1:20">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C201" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D201" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E201">
         <v>200</v>
       </c>
       <c r="F201" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G201">
         <v>64</v>
@@ -13325,13 +13334,13 @@
         <v>111</v>
       </c>
       <c r="I201" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J201" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M201" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P201">
         <v>0</v>
@@ -13351,22 +13360,22 @@
     </row>
     <row r="202" spans="1:20">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C202" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D202" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E202">
         <v>201</v>
       </c>
       <c r="F202" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G202">
         <v>65</v>
@@ -13375,13 +13384,13 @@
         <v>113</v>
       </c>
       <c r="I202" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J202" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M202" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P202">
         <v>0</v>
@@ -13401,22 +13410,22 @@
     </row>
     <row r="203" spans="1:20">
       <c r="A203" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B203" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C203" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D203" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E203">
         <v>202</v>
       </c>
       <c r="F203" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G203">
         <v>65</v>
@@ -13425,13 +13434,13 @@
         <v>113</v>
       </c>
       <c r="I203" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J203" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M203" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P203">
         <v>0</v>
@@ -13451,22 +13460,22 @@
     </row>
     <row r="204" spans="1:20">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C204" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D204" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E204">
         <v>203</v>
       </c>
       <c r="F204" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G204">
         <v>65</v>
@@ -13475,13 +13484,13 @@
         <v>113</v>
       </c>
       <c r="I204" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J204" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M204" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P204">
         <v>0</v>
@@ -13501,22 +13510,22 @@
     </row>
     <row r="205" spans="1:20">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C205" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D205" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E205">
         <v>204</v>
       </c>
       <c r="F205" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G205">
         <v>67</v>
@@ -13525,48 +13534,48 @@
         <v>115</v>
       </c>
       <c r="I205" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="J205" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M205" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P205">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R205">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S205">
-        <v>0</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="T205">
-        <v>0</v>
+        <v>0.9333333333333332</v>
       </c>
     </row>
     <row r="206" spans="1:20">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C206" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D206" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E206">
         <v>205</v>
       </c>
       <c r="F206" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G206">
         <v>68</v>
@@ -13575,13 +13584,13 @@
         <v>117</v>
       </c>
       <c r="I206" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="J206" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="M206" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P206">
         <v>0</v>
@@ -13601,22 +13610,22 @@
     </row>
     <row r="207" spans="1:20">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C207" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D207" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E207">
         <v>206</v>
       </c>
       <c r="F207" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G207">
         <v>69</v>
@@ -13625,13 +13634,13 @@
         <v>118</v>
       </c>
       <c r="I207" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J207" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M207" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P207">
         <v>0</v>
@@ -13651,22 +13660,22 @@
     </row>
     <row r="208" spans="1:20">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C208" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D208" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E208">
         <v>207</v>
       </c>
       <c r="F208" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G208">
         <v>69</v>
@@ -13675,13 +13684,13 @@
         <v>118</v>
       </c>
       <c r="I208" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J208" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M208" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P208">
         <v>0</v>
@@ -13701,22 +13710,22 @@
     </row>
     <row r="209" spans="1:20">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C209" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D209" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E209">
         <v>208</v>
       </c>
       <c r="F209" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G209">
         <v>69</v>
@@ -13725,13 +13734,13 @@
         <v>118</v>
       </c>
       <c r="I209" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J209" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M209" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P209">
         <v>0</v>
@@ -13751,22 +13760,22 @@
     </row>
     <row r="210" spans="1:20">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C210" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D210" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E210">
         <v>209</v>
       </c>
       <c r="F210" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G210">
         <v>69</v>
@@ -13775,13 +13784,13 @@
         <v>118</v>
       </c>
       <c r="I210" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J210" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M210" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P210">
         <v>0</v>
@@ -13801,22 +13810,22 @@
     </row>
     <row r="211" spans="1:20">
       <c r="A211" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C211" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D211" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E211">
         <v>210</v>
       </c>
       <c r="F211" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G211">
         <v>69</v>
@@ -13825,13 +13834,13 @@
         <v>118</v>
       </c>
       <c r="I211" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J211" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M211" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -13851,22 +13860,22 @@
     </row>
     <row r="212" spans="1:20">
       <c r="A212" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C212" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D212" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E212">
         <v>211</v>
       </c>
       <c r="F212" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G212">
         <v>69</v>
@@ -13875,13 +13884,13 @@
         <v>118</v>
       </c>
       <c r="I212" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J212" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M212" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P212">
         <v>0</v>
@@ -13901,22 +13910,22 @@
     </row>
     <row r="213" spans="1:20">
       <c r="A213" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D213" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E213">
         <v>212</v>
       </c>
       <c r="F213" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G213">
         <v>70</v>
@@ -13925,13 +13934,13 @@
         <v>119</v>
       </c>
       <c r="I213" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J213" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M213" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P213">
         <v>0</v>
@@ -13951,22 +13960,22 @@
     </row>
     <row r="214" spans="1:20">
       <c r="A214" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C214" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D214" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E214">
         <v>213</v>
       </c>
       <c r="F214" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G214">
         <v>70</v>
@@ -13975,13 +13984,13 @@
         <v>119</v>
       </c>
       <c r="I214" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J214" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M214" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P214">
         <v>0</v>
@@ -14001,22 +14010,22 @@
     </row>
     <row r="215" spans="1:20">
       <c r="A215" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C215" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D215" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E215">
         <v>214</v>
       </c>
       <c r="F215" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G215">
         <v>70</v>
@@ -14025,13 +14034,13 @@
         <v>119</v>
       </c>
       <c r="I215" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J215" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M215" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -14051,22 +14060,22 @@
     </row>
     <row r="216" spans="1:20">
       <c r="A216" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C216" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D216" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E216">
         <v>215</v>
       </c>
       <c r="F216" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G216">
         <v>70</v>
@@ -14075,13 +14084,13 @@
         <v>119</v>
       </c>
       <c r="I216" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J216" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M216" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P216">
         <v>0</v>
@@ -14101,22 +14110,22 @@
     </row>
     <row r="217" spans="1:20">
       <c r="A217" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C217" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D217" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E217">
         <v>216</v>
       </c>
       <c r="F217" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G217">
         <v>70</v>
@@ -14125,13 +14134,13 @@
         <v>119</v>
       </c>
       <c r="I217" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J217" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M217" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P217">
         <v>0</v>
@@ -14151,22 +14160,22 @@
     </row>
     <row r="218" spans="1:20">
       <c r="A218" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C218" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D218" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E218">
         <v>217</v>
       </c>
       <c r="F218" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G218">
         <v>70</v>
@@ -14175,13 +14184,13 @@
         <v>119</v>
       </c>
       <c r="I218" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J218" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M218" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P218">
         <v>0</v>
@@ -14201,22 +14210,22 @@
     </row>
     <row r="219" spans="1:20">
       <c r="A219" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C219" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D219" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E219">
         <v>218</v>
       </c>
       <c r="F219" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G219">
         <v>70</v>
@@ -14225,13 +14234,13 @@
         <v>119</v>
       </c>
       <c r="I219" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J219" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M219" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P219">
         <v>0</v>

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -9590,19 +9590,19 @@
         <v>894</v>
       </c>
       <c r="P126">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="R126">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S126">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T126">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -9640,19 +9640,19 @@
         <v>894</v>
       </c>
       <c r="P127">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="R127">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S127">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T127">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -9690,19 +9690,19 @@
         <v>894</v>
       </c>
       <c r="P128">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="R128">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S128">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T128">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="129" spans="1:20">

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -9590,19 +9590,19 @@
         <v>894</v>
       </c>
       <c r="P126">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="S126">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="T126">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -9640,19 +9640,19 @@
         <v>894</v>
       </c>
       <c r="P127">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="S127">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="T127">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -9690,19 +9690,19 @@
         <v>894</v>
       </c>
       <c r="P128">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="S128">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="T128">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:20">

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -10440,19 +10440,19 @@
         <v>894</v>
       </c>
       <c r="P143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R143">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S143">
-        <v>0</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="T143">
-        <v>0</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -10490,19 +10490,19 @@
         <v>894</v>
       </c>
       <c r="P144">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R144">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S144">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="T144">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10540,19 +10540,19 @@
         <v>894</v>
       </c>
       <c r="P145">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S145">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T145">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10590,19 +10590,19 @@
         <v>894</v>
       </c>
       <c r="P146">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R146">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S146">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="T146">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="147" spans="1:20">

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -10440,19 +10440,19 @@
         <v>894</v>
       </c>
       <c r="P143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q143">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="S143">
-        <v>0.7333333333333334</v>
+        <v>0</v>
       </c>
       <c r="T143">
-        <v>0.7333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -10490,19 +10490,19 @@
         <v>894</v>
       </c>
       <c r="P144">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Q144">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="S144">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="T144">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -10540,19 +10540,19 @@
         <v>894</v>
       </c>
       <c r="P145">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S145">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="T145">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -10590,19 +10590,19 @@
         <v>894</v>
       </c>
       <c r="P146">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="S146">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="T146">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:20">

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -4793,19 +4793,19 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="64">
@@ -4861,19 +4861,19 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>0.6999999999999998</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="65">
@@ -4931,19 +4931,19 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="66">

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -940,19 +940,19 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1014,19 +1014,19 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="9">

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -5191,7 +5191,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="84">
@@ -5252,7 +5252,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="85">
@@ -5308,7 +5308,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -636,7 +636,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5191,7 +5191,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -5252,7 +5252,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>1.2</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="85">
@@ -5308,7 +5308,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86">
@@ -11352,7 +11352,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="192">
@@ -11408,7 +11408,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="193">
@@ -11464,7 +11464,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="194">
@@ -11520,7 +11520,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="195">
@@ -12260,7 +12260,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="208">
@@ -12318,7 +12318,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -12434,7 +12434,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="211">
@@ -12548,7 +12548,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="213">

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -5078,7 +5078,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="82">
@@ -5134,7 +5134,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="83">

--- a/files/separadas/repeat_p2.xlsx
+++ b/files/separadas/repeat_p2.xlsx
@@ -1036,7 +1036,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
@@ -2893,7 +2893,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44">
@@ -2950,7 +2950,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45">
@@ -3006,7 +3006,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46">
@@ -3062,7 +3062,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47">
@@ -10838,7 +10838,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -10894,7 +10894,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -10950,7 +10950,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="185">
@@ -12202,7 +12202,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="207">
